--- a/backend/storage/app/xlsx/seed_cidades_go.xlsx
+++ b/backend/storage/app/xlsx/seed_cidades_go.xlsx
@@ -23,7 +23,7 @@
     <t>ABADIENSE</t>
   </si>
   <si>
-    <t>3a8ad306-a472-42b5-abeb-0bceae068edc</t>
+    <t>97d9c20e-a7d4-4a88-b70c-dd164d7c8230</t>
   </si>
   <si>
     <t>ABADIÂNIA</t>

--- a/backend/storage/app/xlsx/seed_cidades_go.xlsx
+++ b/backend/storage/app/xlsx/seed_cidades_go.xlsx
@@ -23,7 +23,7 @@
     <t>ABADIENSE</t>
   </si>
   <si>
-    <t>97d9c20e-a7d4-4a88-b70c-dd164d7c8230</t>
+    <t>1388e55c-b493-4470-a84c-2bcf0c9c1285</t>
   </si>
   <si>
     <t>ABADIÂNIA</t>

--- a/backend/storage/app/xlsx/seed_cidades_go.xlsx
+++ b/backend/storage/app/xlsx/seed_cidades_go.xlsx
@@ -23,7 +23,7 @@
     <t>ABADIENSE</t>
   </si>
   <si>
-    <t>1388e55c-b493-4470-a84c-2bcf0c9c1285</t>
+    <t>1fe013d9-1441-4175-92cf-953c346a3bea</t>
   </si>
   <si>
     <t>ABADIÂNIA</t>

--- a/backend/storage/app/xlsx/seed_cidades_go.xlsx
+++ b/backend/storage/app/xlsx/seed_cidades_go.xlsx
@@ -23,7 +23,7 @@
     <t>ABADIENSE</t>
   </si>
   <si>
-    <t>1fe013d9-1441-4175-92cf-953c346a3bea</t>
+    <t>e95cb4ca-3b25-41dc-8e57-28a1303edf94</t>
   </si>
   <si>
     <t>ABADIÂNIA</t>

--- a/backend/storage/app/xlsx/seed_cidades_go.xlsx
+++ b/backend/storage/app/xlsx/seed_cidades_go.xlsx
@@ -23,7 +23,7 @@
     <t>ABADIENSE</t>
   </si>
   <si>
-    <t>e95cb4ca-3b25-41dc-8e57-28a1303edf94</t>
+    <t>54f4d9ca-0da7-446e-834c-99ee606d0206</t>
   </si>
   <si>
     <t>ABADIÂNIA</t>

--- a/backend/storage/app/xlsx/seed_cidades_go.xlsx
+++ b/backend/storage/app/xlsx/seed_cidades_go.xlsx
@@ -23,7 +23,7 @@
     <t>ABADIENSE</t>
   </si>
   <si>
-    <t>54f4d9ca-0da7-446e-834c-99ee606d0206</t>
+    <t>cb057e5b-0e2e-4816-9fc5-74485562d9b5</t>
   </si>
   <si>
     <t>ABADIÂNIA</t>
